--- a/GameServer/realmabilities_atlasOF/dbhelper/DB_RealmAbilities_Albion.xlsx
+++ b/GameServer/realmabilities_atlasOF/dbhelper/DB_RealmAbilities_Albion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7005" tabRatio="864" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7005" tabRatio="864" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="2" r:id="rId1"/>
@@ -376,9 +376,6 @@
     <t>Mercenary</t>
   </si>
   <si>
-    <t>AtlasOF_VoidStyle</t>
-  </si>
-  <si>
     <t>Reaver</t>
   </si>
   <si>
@@ -500,6 +497,9 @@
   </si>
   <si>
     <t>Bonedancer</t>
+  </si>
+  <si>
+    <t>AtlasOF_PurgeReduced</t>
   </si>
 </sst>
 </file>
@@ -640,7 +640,8 @@
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -654,7 +655,8 @@
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -668,7 +670,8 @@
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -682,7 +685,8 @@
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -696,7 +700,8 @@
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -710,6 +715,8 @@
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -719,25 +726,87 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="9"/>
+        <color theme="1"/>
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -877,8 +946,104 @@
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1003,8 +1168,104 @@
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1129,8 +1390,104 @@
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1255,8 +1612,104 @@
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1381,8 +1834,104 @@
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1507,8 +2056,104 @@
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1620,651 +2265,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2409,17 +2409,17 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="tblMinstrel" displayName="tblMinstrel" ref="B3:H36" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="tblMinstrel" displayName="tblMinstrel" ref="B3:H36" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <autoFilter ref="B3:H36"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="60"/>
-    <tableColumn id="2" name="#" dataDxfId="59"/>
-    <tableColumn id="3" name=" ." dataDxfId="58"/>
-    <tableColumn id="4" name="##" dataDxfId="57"/>
-    <tableColumn id="5" name=" .." dataDxfId="56"/>
-    <tableColumn id="6" name="###" dataDxfId="55"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="54">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="67"/>
+    <tableColumn id="2" name="#" dataDxfId="66"/>
+    <tableColumn id="3" name=" ." dataDxfId="65"/>
+    <tableColumn id="4" name="##" dataDxfId="64"/>
+    <tableColumn id="5" name=" .." dataDxfId="63"/>
+    <tableColumn id="6" name="###" dataDxfId="62"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="6">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2427,7 +2427,25 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="tblScout" displayName="tblScout" ref="B3:H33" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="tblScout" displayName="tblScout" ref="B3:H33" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+  <autoFilter ref="B3:H33"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="AbilityKey" dataDxfId="59"/>
+    <tableColumn id="2" name="#" dataDxfId="58"/>
+    <tableColumn id="3" name=" ." dataDxfId="57"/>
+    <tableColumn id="4" name="##" dataDxfId="56"/>
+    <tableColumn id="5" name=" .." dataDxfId="55"/>
+    <tableColumn id="6" name="###" dataDxfId="54"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="5">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="tblCabalist" displayName="tblCabalist" ref="B3:H33" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="B3:H33"/>
   <tableColumns count="7">
     <tableColumn id="1" name="AbilityKey" dataDxfId="51"/>
@@ -2436,26 +2454,8 @@
     <tableColumn id="4" name="##" dataDxfId="48"/>
     <tableColumn id="5" name=" .." dataDxfId="47"/>
     <tableColumn id="6" name="###" dataDxfId="46"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="45">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="tblScout13" displayName="tblScout13" ref="B3:H33" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="B3:H33"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="42"/>
-    <tableColumn id="2" name="#" dataDxfId="41"/>
-    <tableColumn id="3" name=" ." dataDxfId="40"/>
-    <tableColumn id="4" name="##" dataDxfId="39"/>
-    <tableColumn id="5" name=" .." dataDxfId="38"/>
-    <tableColumn id="6" name="###" dataDxfId="37"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="36">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="4">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2463,17 +2463,17 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="tblScout1314" displayName="tblScout1314" ref="B3:H33" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="tblSorcerer" displayName="tblSorcerer" ref="B3:H33" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="B3:H33"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="33"/>
-    <tableColumn id="2" name="#" dataDxfId="32"/>
-    <tableColumn id="3" name=" ." dataDxfId="31"/>
-    <tableColumn id="4" name="##" dataDxfId="30"/>
-    <tableColumn id="5" name=" .." dataDxfId="29"/>
-    <tableColumn id="6" name="###" dataDxfId="28"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="27">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="43"/>
+    <tableColumn id="2" name="#" dataDxfId="42"/>
+    <tableColumn id="3" name=" ." dataDxfId="41"/>
+    <tableColumn id="4" name="##" dataDxfId="40"/>
+    <tableColumn id="5" name=" .." dataDxfId="39"/>
+    <tableColumn id="6" name="###" dataDxfId="38"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="3">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2481,17 +2481,17 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="tblScout131415" displayName="tblScout131415" ref="B3:H33" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="tblTheurgist" displayName="tblTheurgist" ref="B3:H33" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="B3:H33"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="24"/>
-    <tableColumn id="2" name="#" dataDxfId="23"/>
-    <tableColumn id="3" name=" ." dataDxfId="22"/>
-    <tableColumn id="4" name="##" dataDxfId="21"/>
-    <tableColumn id="5" name=" .." dataDxfId="20"/>
-    <tableColumn id="6" name="###" dataDxfId="19"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="18">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="35"/>
+    <tableColumn id="2" name="#" dataDxfId="34"/>
+    <tableColumn id="3" name=" ." dataDxfId="33"/>
+    <tableColumn id="4" name="##" dataDxfId="32"/>
+    <tableColumn id="5" name=" .." dataDxfId="31"/>
+    <tableColumn id="6" name="###" dataDxfId="30"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="2">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2499,17 +2499,17 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="tblScout13141516" displayName="tblScout13141516" ref="B3:H33" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="tblWizard" displayName="tblWizard" ref="B3:H33" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="B3:H33"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="15"/>
-    <tableColumn id="2" name="#" dataDxfId="14"/>
-    <tableColumn id="3" name=" ." dataDxfId="13"/>
-    <tableColumn id="4" name="##" dataDxfId="12"/>
-    <tableColumn id="5" name=" .." dataDxfId="11"/>
-    <tableColumn id="6" name="###" dataDxfId="10"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="9">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="27"/>
+    <tableColumn id="2" name="#" dataDxfId="26"/>
+    <tableColumn id="3" name=" ." dataDxfId="25"/>
+    <tableColumn id="4" name="##" dataDxfId="24"/>
+    <tableColumn id="5" name=" .." dataDxfId="23"/>
+    <tableColumn id="6" name="###" dataDxfId="22"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="1">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2517,17 +2517,17 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="tblScout1314151618" displayName="tblScout1314151618" ref="B3:H33" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="tblNecromancer" displayName="tblNecromancer" ref="B3:H33" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="B3:H33"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="6"/>
-    <tableColumn id="2" name="#" dataDxfId="5"/>
-    <tableColumn id="3" name=" ." dataDxfId="4"/>
-    <tableColumn id="4" name="##" dataDxfId="3"/>
-    <tableColumn id="5" name=" .." dataDxfId="2"/>
-    <tableColumn id="6" name="###" dataDxfId="1"/>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="19"/>
+    <tableColumn id="2" name="#" dataDxfId="18"/>
+    <tableColumn id="3" name=" ." dataDxfId="17"/>
+    <tableColumn id="4" name="##" dataDxfId="16"/>
+    <tableColumn id="5" name=" .." dataDxfId="15"/>
+    <tableColumn id="6" name="###" dataDxfId="14"/>
     <tableColumn id="7" name="SQL QUERY" dataDxfId="0">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2559,8 +2559,8 @@
     <tableColumn id="4" name="##" dataDxfId="120"/>
     <tableColumn id="5" name=" .." dataDxfId="119"/>
     <tableColumn id="6" name="###" dataDxfId="118"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="117">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="13">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2568,17 +2568,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblArmsman" displayName="tblArmsman" ref="B3:H35" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblArmsman" displayName="tblArmsman" ref="B3:H35" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
   <autoFilter ref="B3:H35"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="114"/>
-    <tableColumn id="2" name="#" dataDxfId="113"/>
-    <tableColumn id="3" name=" ." dataDxfId="112"/>
-    <tableColumn id="4" name="##" dataDxfId="111"/>
-    <tableColumn id="5" name=" .." dataDxfId="110"/>
-    <tableColumn id="6" name="###" dataDxfId="109"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="108">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="115"/>
+    <tableColumn id="2" name="#" dataDxfId="114"/>
+    <tableColumn id="3" name=" ." dataDxfId="113"/>
+    <tableColumn id="4" name="##" dataDxfId="112"/>
+    <tableColumn id="5" name=" .." dataDxfId="111"/>
+    <tableColumn id="6" name="###" dataDxfId="110"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="12">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2586,17 +2586,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tblMercenary" displayName="tblMercenary" ref="B3:H35" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tblMercenary" displayName="tblMercenary" ref="B3:H35" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="B3:H35"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="105"/>
-    <tableColumn id="2" name="#" dataDxfId="104"/>
-    <tableColumn id="3" name=" ." dataDxfId="103"/>
-    <tableColumn id="4" name="##" dataDxfId="102"/>
-    <tableColumn id="5" name=" .." dataDxfId="101"/>
-    <tableColumn id="6" name="###" dataDxfId="100"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="99">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="107"/>
+    <tableColumn id="2" name="#" dataDxfId="106"/>
+    <tableColumn id="3" name=" ." dataDxfId="105"/>
+    <tableColumn id="4" name="##" dataDxfId="104"/>
+    <tableColumn id="5" name=" .." dataDxfId="103"/>
+    <tableColumn id="6" name="###" dataDxfId="102"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="11">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2604,17 +2604,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="tblReaver" displayName="tblReaver" ref="B3:H33" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="tblReaver" displayName="tblReaver" ref="B3:H33" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
   <autoFilter ref="B3:H33"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="96"/>
-    <tableColumn id="2" name="#" dataDxfId="95"/>
-    <tableColumn id="3" name=" ." dataDxfId="94"/>
-    <tableColumn id="4" name="##" dataDxfId="93"/>
-    <tableColumn id="5" name=" .." dataDxfId="92"/>
-    <tableColumn id="6" name="###" dataDxfId="91"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="90">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="99"/>
+    <tableColumn id="2" name="#" dataDxfId="98"/>
+    <tableColumn id="3" name=" ." dataDxfId="97"/>
+    <tableColumn id="4" name="##" dataDxfId="96"/>
+    <tableColumn id="5" name=" .." dataDxfId="95"/>
+    <tableColumn id="6" name="###" dataDxfId="94"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="10">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2622,17 +2622,17 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="tblCleric" displayName="tblCleric" ref="B3:H34" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="tblCleric" displayName="tblCleric" ref="B3:H34" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
   <autoFilter ref="B3:H34"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="87"/>
-    <tableColumn id="2" name="#" dataDxfId="86"/>
-    <tableColumn id="3" name=" ." dataDxfId="85"/>
-    <tableColumn id="4" name="##" dataDxfId="84"/>
-    <tableColumn id="5" name=" .." dataDxfId="83"/>
-    <tableColumn id="6" name="###" dataDxfId="82"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="81">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="91"/>
+    <tableColumn id="2" name="#" dataDxfId="90"/>
+    <tableColumn id="3" name=" ." dataDxfId="89"/>
+    <tableColumn id="4" name="##" dataDxfId="88"/>
+    <tableColumn id="5" name=" .." dataDxfId="87"/>
+    <tableColumn id="6" name="###" dataDxfId="86"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="9">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2640,17 +2640,17 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="tblFriar" displayName="tblFriar" ref="B3:H35" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="tblFriar" displayName="tblFriar" ref="B3:H35" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
   <autoFilter ref="B3:H35"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="78"/>
-    <tableColumn id="2" name="#" dataDxfId="77"/>
-    <tableColumn id="3" name=" ." dataDxfId="76"/>
-    <tableColumn id="4" name="##" dataDxfId="75"/>
-    <tableColumn id="5" name=" .." dataDxfId="74"/>
-    <tableColumn id="6" name="###" dataDxfId="73"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="72">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="83"/>
+    <tableColumn id="2" name="#" dataDxfId="82"/>
+    <tableColumn id="3" name=" ." dataDxfId="81"/>
+    <tableColumn id="4" name="##" dataDxfId="80"/>
+    <tableColumn id="5" name=" .." dataDxfId="79"/>
+    <tableColumn id="6" name="###" dataDxfId="78"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="8">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2658,17 +2658,17 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="tblInfiltrator" displayName="tblInfiltrator" ref="B3:H31" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="tblInfiltrator" displayName="tblInfiltrator" ref="B3:H31" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="B3:H31"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="69"/>
-    <tableColumn id="2" name="#" dataDxfId="68"/>
-    <tableColumn id="3" name=" ." dataDxfId="67"/>
-    <tableColumn id="4" name="##" dataDxfId="66"/>
-    <tableColumn id="5" name=" .." dataDxfId="65"/>
-    <tableColumn id="6" name="###" dataDxfId="64"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="63">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="75"/>
+    <tableColumn id="2" name="#" dataDxfId="74"/>
+    <tableColumn id="3" name=" ." dataDxfId="73"/>
+    <tableColumn id="4" name="##" dataDxfId="72"/>
+    <tableColumn id="5" name=" .." dataDxfId="71"/>
+    <tableColumn id="6" name="###" dataDxfId="70"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="7">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2944,8 +2944,8 @@
   <dimension ref="B1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2990,7 +2990,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -3004,13 +3004,13 @@
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -3018,13 +3018,13 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -3032,13 +3032,13 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -3046,13 +3046,13 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -3060,13 +3060,13 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="12">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -3074,13 +3074,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -3088,13 +3088,13 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -3102,13 +3102,13 @@
         <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -3130,13 +3130,13 @@
         <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -3144,13 +3144,13 @@
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -3158,13 +3158,13 @@
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -3172,13 +3172,13 @@
         <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E16">
         <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -3186,13 +3186,13 @@
         <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17">
         <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -3200,13 +3200,13 @@
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18">
         <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -3214,13 +3214,13 @@
         <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19">
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -3228,13 +3228,13 @@
         <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E20">
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -3242,13 +3242,13 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21">
         <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -3256,13 +3256,13 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E22">
         <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -3270,13 +3270,13 @@
         <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23">
         <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -3284,13 +3284,13 @@
         <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E24">
         <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -3298,13 +3298,13 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E25">
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -3312,13 +3312,13 @@
         <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E26">
         <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -3326,13 +3326,13 @@
         <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27">
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -3340,13 +3340,13 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28">
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -3354,13 +3354,13 @@
         <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29">
         <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -3368,13 +3368,13 @@
         <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E30">
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -3382,13 +3382,13 @@
         <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E31">
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -3396,13 +3396,13 @@
         <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E32">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -3410,13 +3410,13 @@
         <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -3424,13 +3424,13 @@
         <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E34">
         <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -3438,13 +3438,13 @@
         <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E35">
         <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -3452,13 +3452,13 @@
         <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E36">
         <v>25</v>
       </c>
       <c r="F36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -3466,13 +3466,13 @@
         <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37">
         <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -3480,13 +3480,13 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E38">
         <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -3494,13 +3494,13 @@
         <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E39">
         <v>27</v>
       </c>
       <c r="F39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -3508,13 +3508,13 @@
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E40">
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -3609,172 +3609,172 @@
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
@@ -3835,9 +3835,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H33"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3849,20 +3849,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="207.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -3912,8 +3912,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_AugStr', 'Scout1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_AugStr', 'Scout1-0-1','Scout1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -3938,8 +3938,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_AugDex', 'Scout1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_AugDex', 'Scout1-0-2','Scout1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -3964,8 +3964,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_MasteryOfPain', 'Scout1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_MasteryOfPain', 'Scout1-0-3','Scout1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -3990,8 +3990,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_MasteryOfBlocking', 'Scout1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_MasteryOfBlocking', 'Scout1-0-4','Scout1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -4016,8 +4016,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_HailOfBlows', 'Scout1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_HailOfBlows', 'Scout1-0-5','Scout1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -4042,8 +4042,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_MasteryOfArchery', 'Scout1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_MasteryOfArchery', 'Scout1-0-6','Scout1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -4068,8 +4068,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_FalconsEye', 'Scout1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_FalconsEye', 'Scout1-0-7','Scout1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -4094,8 +4094,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_AugCon', 'Scout1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_AugCon', 'Scout1-0-8','Scout1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -4120,8 +4120,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_AugQui', 'Scout1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_AugQui', 'Scout1-0-9','Scout1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -4146,8 +4146,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_Dodger', 'Scout1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_Dodger', 'Scout1-1-1','Scout1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -4172,8 +4172,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_MasteryOfStealth', 'Scout1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_MasteryOfStealth', 'Scout1-1-2','Scout1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -4198,8 +4198,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_LongWind', 'Scout1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_LongWind', 'Scout1-1-3','Scout1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -4224,8 +4224,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_Tireless', 'Scout1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_Tireless', 'Scout1-1-4','Scout1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -4250,8 +4250,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_Regeneration', 'Scout1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_Regeneration', 'Scout1-1-5','Scout1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -4276,8 +4276,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_Toughness', 'Scout1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_Toughness', 'Scout1-1-6','Scout1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -4302,8 +4302,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_MasteryOfWater', 'Scout1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_MasteryOfWater', 'Scout1-1-7','Scout1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -4328,8 +4328,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_AvoidanceOfMagic', 'Scout1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_AvoidanceOfMagic', 'Scout1-1-8','Scout1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -4354,8 +4354,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_Lifter', 'Scout1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_Lifter', 'Scout1-1-9','Scout1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -4380,8 +4380,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_VeilRecovery', 'Scout1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_VeilRecovery', 'Scout1-2-1','Scout1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -4406,8 +4406,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_ArrowSalvaging', 'Scout1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_ArrowSalvaging', 'Scout1-2-2','Scout1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -4432,8 +4432,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_FirstAid', 'Scout1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_FirstAid', 'Scout1-2-3','Scout1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -4458,8 +4458,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_IgnorePain', 'Scout1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_IgnorePain', 'Scout1-2-4','Scout1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -4484,8 +4484,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_RainOfFire', 'Scout1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_RainOfFire', 'Scout1-2-5','Scout1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -4510,8 +4510,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_RainOfIce', 'Scout1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_RainOfIce', 'Scout1-2-6','Scout1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -4536,8 +4536,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_RainOfAnnihilation', 'Scout1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_RainOfAnnihilation', 'Scout1-2-7','Scout1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -4562,8 +4562,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_Longshot', 'Scout1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_Longshot', 'Scout1-2-8','Scout1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -4588,8 +4588,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_Volley', 'Scout1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_Volley', 'Scout1-2-9','Scout1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -4614,8 +4614,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_EmptyMind', 'Scout1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_EmptyMind', 'Scout1-3-1','Scout1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -4640,8 +4640,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_Purge', 'Scout1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_Purge', 'Scout1-3-2','Scout1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -4666,8 +4666,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('3', 'AtlasOF_TrueSight', 'Scout1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"','",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('3', 'AtlasOF_TrueSight', 'Scout1-3-3','Scout1-3-3');</v>
       </c>
     </row>
   </sheetData>
@@ -4695,9 +4695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H33"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4709,20 +4709,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="215" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -4772,8 +4772,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_AugStr', 'Cabalist1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_AugStr', 'Cabalist1-0-1','Cabalist1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -4798,8 +4798,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_AugDex', 'Cabalist1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_AugDex', 'Cabalist1-0-2','Cabalist1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -4824,8 +4824,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_AugCon', 'Cabalist1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_AugCon', 'Cabalist1-0-3','Cabalist1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -4850,8 +4850,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_SecondWind', 'Cabalist1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_SecondWind', 'Cabalist1-0-4','Cabalist1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -4876,8 +4876,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_AugQui', 'Cabalist1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_AugQui', 'Cabalist1-0-5','Cabalist1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -4902,8 +4902,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_AugAcuity', 'Cabalist1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_AugAcuity', 'Cabalist1-0-6','Cabalist1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -4928,8 +4928,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_Serenity', 'Cabalist1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_Serenity', 'Cabalist1-0-7','Cabalist1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -4954,8 +4954,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_EtherealBond', 'Cabalist1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_EtherealBond', 'Cabalist1-0-8','Cabalist1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -4980,8 +4980,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_WildArcana', 'Cabalist1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_WildArcana', 'Cabalist1-0-9','Cabalist1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -5006,8 +5006,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_WildMinion', 'Cabalist1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_WildMinion', 'Cabalist1-1-1','Cabalist1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -5032,8 +5032,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_WildPower', 'Cabalist1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_WildPower', 'Cabalist1-1-2','Cabalist1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -5058,8 +5058,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_MasteryOfTheArt', 'Cabalist1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_MasteryOfTheArt', 'Cabalist1-1-3','Cabalist1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -5084,8 +5084,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_MasteryOfMagery', 'Cabalist1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_MasteryOfMagery', 'Cabalist1-1-4','Cabalist1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -5110,8 +5110,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_MasteryOfTheArcane', 'Cabalist1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_MasteryOfTheArcane', 'Cabalist1-1-5','Cabalist1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -5136,8 +5136,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_Concentration', 'Cabalist1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_Concentration', 'Cabalist1-1-6','Cabalist1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -5162,8 +5162,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_MasteryOfConcentration', 'Cabalist1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_MasteryOfConcentration', 'Cabalist1-1-7','Cabalist1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -5188,8 +5188,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_MajesticWill', 'Cabalist1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_MajesticWill', 'Cabalist1-1-8','Cabalist1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -5214,8 +5214,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_LongWind', 'Cabalist1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_LongWind', 'Cabalist1-1-9','Cabalist1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -5240,8 +5240,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_Tireless', 'Cabalist1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_Tireless', 'Cabalist1-2-1','Cabalist1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -5266,8 +5266,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_Regeneration', 'Cabalist1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_Regeneration', 'Cabalist1-2-2','Cabalist1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -5292,8 +5292,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_Toughness', 'Cabalist1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_Toughness', 'Cabalist1-2-3','Cabalist1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -5318,8 +5318,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_MasteryOfWater', 'Cabalist1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_MasteryOfWater', 'Cabalist1-2-4','Cabalist1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -5344,8 +5344,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_AvoidanceOfMagic', 'Cabalist1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_AvoidanceOfMagic', 'Cabalist1-2-5','Cabalist1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -5370,8 +5370,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_Lifter', 'Cabalist1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_Lifter', 'Cabalist1-2-6','Cabalist1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -5396,8 +5396,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_VeilRecovery', 'Cabalist1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_VeilRecovery', 'Cabalist1-2-7','Cabalist1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -5422,8 +5422,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_EmptyMind', 'Cabalist1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_EmptyMind', 'Cabalist1-2-8','Cabalist1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -5448,8 +5448,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_MCL', 'Cabalist1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_MCL', 'Cabalist1-2-9','Cabalist1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -5474,8 +5474,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_RagingPower', 'Cabalist1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_RagingPower', 'Cabalist1-3-1','Cabalist1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -5500,8 +5500,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_Purge', 'Cabalist1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_Purge', 'Cabalist1-3-2','Cabalist1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -5526,8 +5526,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('13', 'AtlasOF_Juggernaut', 'Cabalist1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCabalist[[#This Row],[AbilityKey]],"', '",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"','",$D$2,tblCabalist[[#This Row],['#]],tblCabalist[[#This Row],[ .]],tblCabalist[[#This Row],['#'#]],tblCabalist[[#This Row],[ ..]],tblCabalist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('13', 'AtlasOF_Juggernaut', 'Cabalist1-3-3','Cabalist1-3-3');</v>
       </c>
     </row>
   </sheetData>
@@ -5555,9 +5555,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H33"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5569,20 +5569,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="214" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -5632,8 +5632,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_AugStr', 'Sorcerer1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_AugStr', 'Sorcerer1-0-1','Sorcerer1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -5658,8 +5658,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_AugDex', 'Sorcerer1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_AugDex', 'Sorcerer1-0-2','Sorcerer1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -5684,8 +5684,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_AugCon', 'Sorcerer1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_AugCon', 'Sorcerer1-0-3','Sorcerer1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -5710,8 +5710,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_SecondWind', 'Sorcerer1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_SecondWind', 'Sorcerer1-0-4','Sorcerer1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -5736,8 +5736,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_AugQui', 'Sorcerer1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_AugQui', 'Sorcerer1-0-5','Sorcerer1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -5762,8 +5762,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_AugAcuity', 'Sorcerer1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_AugAcuity', 'Sorcerer1-0-6','Sorcerer1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -5788,8 +5788,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_Serenity', 'Sorcerer1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_Serenity', 'Sorcerer1-0-7','Sorcerer1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -5814,8 +5814,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_EtherealBond', 'Sorcerer1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_EtherealBond', 'Sorcerer1-0-8','Sorcerer1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -5840,8 +5840,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_WildArcana', 'Sorcerer1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_WildArcana', 'Sorcerer1-0-9','Sorcerer1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -5866,8 +5866,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_WildMinion', 'Sorcerer1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_WildMinion', 'Sorcerer1-1-1','Sorcerer1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -5892,8 +5892,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_WildPower', 'Sorcerer1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_WildPower', 'Sorcerer1-1-2','Sorcerer1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -5918,8 +5918,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_MasteryOfTheArt', 'Sorcerer1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_MasteryOfTheArt', 'Sorcerer1-1-3','Sorcerer1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -5944,8 +5944,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_MasteryOfMagery', 'Sorcerer1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_MasteryOfMagery', 'Sorcerer1-1-4','Sorcerer1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -5970,8 +5970,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_MasteryOfTheArcane', 'Sorcerer1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_MasteryOfTheArcane', 'Sorcerer1-1-5','Sorcerer1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -5996,8 +5996,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_Concentration', 'Sorcerer1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_Concentration', 'Sorcerer1-1-6','Sorcerer1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -6022,8 +6022,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_MasteryOfConcentration', 'Sorcerer1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_MasteryOfConcentration', 'Sorcerer1-1-7','Sorcerer1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -6048,8 +6048,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_MajesticWill', 'Sorcerer1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_MajesticWill', 'Sorcerer1-1-8','Sorcerer1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -6074,8 +6074,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_LongWind', 'Sorcerer1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_LongWind', 'Sorcerer1-1-9','Sorcerer1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -6100,8 +6100,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_Tireless', 'Sorcerer1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_Tireless', 'Sorcerer1-2-1','Sorcerer1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -6126,8 +6126,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_Regeneration', 'Sorcerer1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_Regeneration', 'Sorcerer1-2-2','Sorcerer1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -6152,8 +6152,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_Toughness', 'Sorcerer1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_Toughness', 'Sorcerer1-2-3','Sorcerer1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -6178,8 +6178,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_MasteryOfWater', 'Sorcerer1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_MasteryOfWater', 'Sorcerer1-2-4','Sorcerer1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -6204,8 +6204,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_AvoidanceOfMagic', 'Sorcerer1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_AvoidanceOfMagic', 'Sorcerer1-2-5','Sorcerer1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -6230,8 +6230,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_Lifter', 'Sorcerer1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_Lifter', 'Sorcerer1-2-6','Sorcerer1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -6256,8 +6256,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_VeilRecovery', 'Sorcerer1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_VeilRecovery', 'Sorcerer1-2-7','Sorcerer1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -6282,8 +6282,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_EmptyMind', 'Sorcerer1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_EmptyMind', 'Sorcerer1-2-8','Sorcerer1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -6308,8 +6308,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_MCL', 'Sorcerer1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_MCL', 'Sorcerer1-2-9','Sorcerer1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -6334,8 +6334,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_RagingPower', 'Sorcerer1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_RagingPower', 'Sorcerer1-3-1','Sorcerer1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -6360,8 +6360,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_Purge', 'Sorcerer1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_Purge', 'Sorcerer1-3-2','Sorcerer1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -6386,8 +6386,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('8', 'AtlasOF_CorporealDisintegration', 'Sorcerer1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSorcerer[[#This Row],[AbilityKey]],"', '",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"','",$D$2,tblSorcerer[[#This Row],['#]],tblSorcerer[[#This Row],[ .]],tblSorcerer[[#This Row],['#'#]],tblSorcerer[[#This Row],[ ..]],tblSorcerer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('8', 'AtlasOF_CorporealDisintegration', 'Sorcerer1-3-3','Sorcerer1-3-3');</v>
       </c>
     </row>
   </sheetData>
@@ -6415,9 +6415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6429,20 +6429,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="216.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -6492,8 +6492,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_AugStr', 'Theurgist1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_AugStr', 'Theurgist1-0-1','Theurgist1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -6518,8 +6518,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_AugDex', 'Theurgist1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_AugDex', 'Theurgist1-0-2','Theurgist1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -6544,8 +6544,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_AugCon', 'Theurgist1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_AugCon', 'Theurgist1-0-3','Theurgist1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -6570,8 +6570,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_SecondWind', 'Theurgist1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_SecondWind', 'Theurgist1-0-4','Theurgist1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -6596,8 +6596,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_AugQui', 'Theurgist1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_AugQui', 'Theurgist1-0-5','Theurgist1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -6622,8 +6622,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_AugAcuity', 'Theurgist1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_AugAcuity', 'Theurgist1-0-6','Theurgist1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -6648,8 +6648,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_Serenity', 'Theurgist1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_Serenity', 'Theurgist1-0-7','Theurgist1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -6674,8 +6674,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_EtherealBond', 'Theurgist1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_EtherealBond', 'Theurgist1-0-8','Theurgist1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -6700,8 +6700,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_WildArcana', 'Theurgist1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_WildArcana', 'Theurgist1-0-9','Theurgist1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -6726,8 +6726,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_WildPower', 'Theurgist1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_WildPower', 'Theurgist1-1-1','Theurgist1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -6752,8 +6752,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_MasteryOfTheArt', 'Theurgist1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_MasteryOfTheArt', 'Theurgist1-1-2','Theurgist1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -6778,8 +6778,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_MasteryOfMagery', 'Theurgist1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_MasteryOfMagery', 'Theurgist1-1-3','Theurgist1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -6804,8 +6804,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_MasteryOfTheArcane', 'Theurgist1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_MasteryOfTheArcane', 'Theurgist1-1-4','Theurgist1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -6830,8 +6830,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_Concentration', 'Theurgist1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_Concentration', 'Theurgist1-1-5','Theurgist1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -6856,8 +6856,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_MasteryOfConcentration', 'Theurgist1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_MasteryOfConcentration', 'Theurgist1-1-6','Theurgist1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -6882,8 +6882,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_MajesticWill', 'Theurgist1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_MajesticWill', 'Theurgist1-1-7','Theurgist1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -6908,8 +6908,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_LongWind', 'Theurgist1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_LongWind', 'Theurgist1-1-8','Theurgist1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -6934,8 +6934,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_Tireless', 'Theurgist1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_Tireless', 'Theurgist1-1-9','Theurgist1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -6960,8 +6960,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_Regeneration', 'Theurgist1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_Regeneration', 'Theurgist1-2-1','Theurgist1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -6986,8 +6986,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_Toughness', 'Theurgist1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_Toughness', 'Theurgist1-2-2','Theurgist1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -7012,8 +7012,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_MasteryOfWater', 'Theurgist1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_MasteryOfWater', 'Theurgist1-2-3','Theurgist1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -7038,8 +7038,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_AvoidanceOfMagic', 'Theurgist1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_AvoidanceOfMagic', 'Theurgist1-2-4','Theurgist1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -7064,8 +7064,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_Lifter', 'Theurgist1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_Lifter', 'Theurgist1-2-5','Theurgist1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -7090,8 +7090,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_VeilRecovery', 'Theurgist1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_VeilRecovery', 'Theurgist1-2-6','Theurgist1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -7116,8 +7116,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_FirstAid', 'Theurgist1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_FirstAid', 'Theurgist1-2-7','Theurgist1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -7142,8 +7142,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_EmptyMind', 'Theurgist1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_EmptyMind', 'Theurgist1-2-8','Theurgist1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -7168,8 +7168,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_MCL', 'Theurgist1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_MCL', 'Theurgist1-2-9','Theurgist1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -7194,8 +7194,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_RagingPower', 'Theurgist1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_RagingPower', 'Theurgist1-3-1','Theurgist1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -7220,8 +7220,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_Purge', 'Theurgist1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_Purge', 'Theurgist1-3-2','Theurgist1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -7246,8 +7246,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('5', 'AtlasOF_SiegeBolt', 'Theurgist1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblTheurgist[[#This Row],[AbilityKey]],"', '",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"','",$D$2,tblTheurgist[[#This Row],['#]],tblTheurgist[[#This Row],[ .]],tblTheurgist[[#This Row],['#'#]],tblTheurgist[[#This Row],[ ..]],tblTheurgist[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('5', 'AtlasOF_SiegeBolt', 'Theurgist1-3-3','Theurgist1-3-3');</v>
       </c>
     </row>
   </sheetData>
@@ -7275,9 +7275,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H33"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7289,20 +7289,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="209.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -7352,8 +7352,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_AugStr', 'Wizard1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_AugStr', 'Wizard1-0-1','Wizard1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -7378,8 +7378,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_AugDex', 'Wizard1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_AugDex', 'Wizard1-0-2','Wizard1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -7404,8 +7404,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_AugCon', 'Wizard1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_AugCon', 'Wizard1-0-3','Wizard1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -7430,8 +7430,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_SecondWind', 'Wizard1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_SecondWind', 'Wizard1-0-4','Wizard1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -7456,8 +7456,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_AugQui', 'Wizard1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_AugQui', 'Wizard1-0-5','Wizard1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -7482,8 +7482,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_AugAcuity', 'Wizard1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_AugAcuity', 'Wizard1-0-6','Wizard1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -7508,8 +7508,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_Serenity', 'Wizard1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_Serenity', 'Wizard1-0-7','Wizard1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -7534,8 +7534,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_EtherealBond', 'Wizard1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_EtherealBond', 'Wizard1-0-8','Wizard1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -7560,8 +7560,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_WildArcana', 'Wizard1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_WildArcana', 'Wizard1-0-9','Wizard1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -7586,8 +7586,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_WildPower', 'Wizard1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_WildPower', 'Wizard1-1-1','Wizard1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -7612,8 +7612,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_MasteryOfTheArt', 'Wizard1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_MasteryOfTheArt', 'Wizard1-1-2','Wizard1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -7638,8 +7638,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_MasteryOfMagery', 'Wizard1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_MasteryOfMagery', 'Wizard1-1-3','Wizard1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -7664,8 +7664,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_MasteryOfTheArcane', 'Wizard1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_MasteryOfTheArcane', 'Wizard1-1-4','Wizard1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -7690,8 +7690,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_Concentration', 'Wizard1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_Concentration', 'Wizard1-1-5','Wizard1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -7716,8 +7716,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_MasteryOfConcentration', 'Wizard1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_MasteryOfConcentration', 'Wizard1-1-6','Wizard1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -7742,8 +7742,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_MajesticWill', 'Wizard1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_MajesticWill', 'Wizard1-1-7','Wizard1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -7768,8 +7768,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_LongWind', 'Wizard1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_LongWind', 'Wizard1-1-8','Wizard1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -7794,8 +7794,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_Tireless', 'Wizard1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_Tireless', 'Wizard1-1-9','Wizard1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -7820,8 +7820,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_Regeneration', 'Wizard1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_Regeneration', 'Wizard1-2-1','Wizard1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -7846,8 +7846,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_Toughness', 'Wizard1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_Toughness', 'Wizard1-2-2','Wizard1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -7872,8 +7872,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_MasteryOfWater', 'Wizard1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_MasteryOfWater', 'Wizard1-2-3','Wizard1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -7898,8 +7898,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_AvoidanceOfMagic', 'Wizard1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_AvoidanceOfMagic', 'Wizard1-2-4','Wizard1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -7924,8 +7924,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_Lifter', 'Wizard1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_Lifter', 'Wizard1-2-5','Wizard1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -7950,8 +7950,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_VeilRecovery', 'Wizard1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_VeilRecovery', 'Wizard1-2-6','Wizard1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -7976,8 +7976,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_FirstAid', 'Wizard1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_FirstAid', 'Wizard1-2-7','Wizard1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -8002,8 +8002,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_EmptyMind', 'Wizard1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_EmptyMind', 'Wizard1-2-8','Wizard1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -8028,8 +8028,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_MCL', 'Wizard1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_MCL', 'Wizard1-2-9','Wizard1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -8054,8 +8054,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_RagingPower', 'Wizard1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_RagingPower', 'Wizard1-3-1','Wizard1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -8080,8 +8080,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_Purge', 'Wizard1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_Purge', 'Wizard1-3-2','Wizard1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -8106,8 +8106,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13141516[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13141516[[#This Row],['#]],tblScout13141516[[#This Row],[ .]],tblScout13141516[[#This Row],['#'#]],tblScout13141516[[#This Row],[ ..]],tblScout13141516[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('7', 'AtlasOF_VolcanicPillar', 'Wizard1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWizard[[#This Row],[AbilityKey]],"', '",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"','",$D$2,tblWizard[[#This Row],['#]],tblWizard[[#This Row],[ .]],tblWizard[[#This Row],['#'#]],tblWizard[[#This Row],[ ..]],tblWizard[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('7', 'AtlasOF_VolcanicPillar', 'Wizard1-3-3','Wizard1-3-3');</v>
       </c>
     </row>
   </sheetData>
@@ -8135,9 +8135,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H33"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8149,20 +8149,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="221.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -8212,8 +8212,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_AugStr', 'Necromancer1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_AugStr', 'Necromancer1-0-1','Necromancer1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -8238,8 +8238,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_AugDex', 'Necromancer1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_AugDex', 'Necromancer1-0-2','Necromancer1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -8264,8 +8264,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_AugCon', 'Necromancer1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_AugCon', 'Necromancer1-0-3','Necromancer1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -8290,8 +8290,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_SecondWind', 'Necromancer1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_SecondWind', 'Necromancer1-0-4','Necromancer1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -8316,8 +8316,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_AugQui', 'Necromancer1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_AugQui', 'Necromancer1-0-5','Necromancer1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -8342,8 +8342,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_AugAcuity', 'Necromancer1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_AugAcuity', 'Necromancer1-0-6','Necromancer1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -8368,8 +8368,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_Serenity', 'Necromancer1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_Serenity', 'Necromancer1-0-7','Necromancer1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -8394,8 +8394,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_EtherealBond', 'Necromancer1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_EtherealBond', 'Necromancer1-0-8','Necromancer1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -8420,8 +8420,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_WildArcana', 'Necromancer1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_WildArcana', 'Necromancer1-0-9','Necromancer1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -8446,8 +8446,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_WildMinion', 'Necromancer1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_WildMinion', 'Necromancer1-1-1','Necromancer1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -8472,8 +8472,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_WildPower', 'Necromancer1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_WildPower', 'Necromancer1-1-2','Necromancer1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -8498,8 +8498,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_MasteryOfTheArt', 'Necromancer1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_MasteryOfTheArt', 'Necromancer1-1-3','Necromancer1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -8524,8 +8524,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_MasteryOfMagery', 'Necromancer1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_MasteryOfMagery', 'Necromancer1-1-4','Necromancer1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -8550,8 +8550,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_MasteryOfTheArcane', 'Necromancer1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_MasteryOfTheArcane', 'Necromancer1-1-5','Necromancer1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -8576,8 +8576,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_Concentration', 'Necromancer1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_Concentration', 'Necromancer1-1-6','Necromancer1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -8602,8 +8602,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_MasteryOfConcentration', 'Necromancer1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_MasteryOfConcentration', 'Necromancer1-1-7','Necromancer1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -8628,8 +8628,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_MajesticWill', 'Necromancer1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_MajesticWill', 'Necromancer1-1-8','Necromancer1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -8654,8 +8654,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_LongWind', 'Necromancer1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_LongWind', 'Necromancer1-1-9','Necromancer1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -8680,8 +8680,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_Tireless', 'Necromancer1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_Tireless', 'Necromancer1-2-1','Necromancer1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -8706,8 +8706,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_Regeneration', 'Necromancer1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_Regeneration', 'Necromancer1-2-2','Necromancer1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -8732,8 +8732,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_Toughness', 'Necromancer1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_Toughness', 'Necromancer1-2-3','Necromancer1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -8758,8 +8758,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_MasteryOfWater', 'Necromancer1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_MasteryOfWater', 'Necromancer1-2-4','Necromancer1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -8784,8 +8784,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_AvoidanceOfMagic', 'Necromancer1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_AvoidanceOfMagic', 'Necromancer1-2-5','Necromancer1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -8810,8 +8810,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_Lifter', 'Necromancer1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_Lifter', 'Necromancer1-2-6','Necromancer1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -8836,8 +8836,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_VeilRecovery', 'Necromancer1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_VeilRecovery', 'Necromancer1-2-7','Necromancer1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -8862,8 +8862,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_EmptyMind', 'Necromancer1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_EmptyMind', 'Necromancer1-2-8','Necromancer1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -8888,8 +8888,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_MCL', 'Necromancer1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_MCL', 'Necromancer1-2-9','Necromancer1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -8914,8 +8914,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_RagingPower', 'Necromancer1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_RagingPower', 'Necromancer1-3-1','Necromancer1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -8940,8 +8940,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_Purge', 'Necromancer1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_Purge', 'Necromancer1-3-2','Necromancer1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -8966,8 +8966,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314151618[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314151618[[#This Row],['#]],tblScout1314151618[[#This Row],[ .]],tblScout1314151618[[#This Row],['#'#]],tblScout1314151618[[#This Row],[ ..]],tblScout1314151618[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('12', 'AtlasOF_StrikeTheSoul', 'Necromancer1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblNecromancer[[#This Row],[AbilityKey]],"', '",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"','",$D$2,tblNecromancer[[#This Row],['#]],tblNecromancer[[#This Row],[ .]],tblNecromancer[[#This Row],['#'#]],tblNecromancer[[#This Row],[ ..]],tblNecromancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('12', 'AtlasOF_StrikeTheSoul', 'Necromancer1-3-3','Necromancer1-3-3');</v>
       </c>
     </row>
   </sheetData>
@@ -8978,7 +8978,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CONFIG!$B$2:$B$101</xm:f>
@@ -8995,9 +8995,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9009,14 +9009,14 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="212" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -9072,8 +9072,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_AugStr', 'Paladin1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_AugStr', 'Paladin1-0-1','Paladin1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -9098,8 +9098,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_MasteryOfArms', 'Paladin1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_MasteryOfArms', 'Paladin1-0-2','Paladin1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -9124,8 +9124,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_AugDex', 'Paladin1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_AugDex', 'Paladin1-0-3','Paladin1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -9150,8 +9150,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_MasteryOfPain', 'Paladin1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_MasteryOfPain', 'Paladin1-0-4','Paladin1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -9176,8 +9176,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_MasteryOfBlocking', 'Paladin1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_MasteryOfBlocking', 'Paladin1-0-5','Paladin1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -9202,8 +9202,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_MasteryOfParrying', 'Paladin1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_MasteryOfParrying', 'Paladin1-0-6','Paladin1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -9228,8 +9228,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_HailOfBlows', 'Paladin1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_HailOfBlows', 'Paladin1-0-7','Paladin1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -9254,8 +9254,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_AugCon', 'Paladin1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_AugCon', 'Paladin1-0-8','Paladin1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -9280,8 +9280,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_AvoidPain', 'Paladin1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_AvoidPain', 'Paladin1-0-9','Paladin1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -9306,8 +9306,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_SecondWind', 'Paladin1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_SecondWind', 'Paladin1-1-1','Paladin1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -9332,8 +9332,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_ArmorOfFaith', 'Paladin1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_ArmorOfFaith', 'Paladin1-1-2','Paladin1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -9358,8 +9358,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_BattleYell', 'Paladin1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_BattleYell', 'Paladin1-1-3','Paladin1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -9384,8 +9384,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_AugQui', 'Paladin1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_AugQui', 'Paladin1-1-4','Paladin1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -9410,8 +9410,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_AugAcuity', 'Paladin1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_AugAcuity', 'Paladin1-1-5','Paladin1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -9436,8 +9436,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_MasteryOfTheArcane', 'Paladin1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_MasteryOfTheArcane', 'Paladin1-1-6','Paladin1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -9462,8 +9462,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_LongWind', 'Paladin1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_LongWind', 'Paladin1-1-7','Paladin1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -9488,8 +9488,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_Tireless', 'Paladin1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_Tireless', 'Paladin1-1-8','Paladin1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -9514,8 +9514,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_Regeneration', 'Paladin1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_Regeneration', 'Paladin1-1-9','Paladin1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -9540,8 +9540,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_Toughness', 'Paladin1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_Toughness', 'Paladin1-2-1','Paladin1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -9566,8 +9566,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_MasteryOfWater', 'Paladin1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_MasteryOfWater', 'Paladin1-2-2','Paladin1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -9592,8 +9592,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_AvoidanceOfMagic', 'Paladin1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_AvoidanceOfMagic', 'Paladin1-2-3','Paladin1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -9618,8 +9618,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_Lifter', 'Paladin1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_Lifter', 'Paladin1-2-4','Paladin1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -9644,8 +9644,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_VeilRecovery', 'Paladin1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_VeilRecovery', 'Paladin1-2-5','Paladin1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -9670,8 +9670,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_Trip', 'Paladin1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_Trip', 'Paladin1-2-6','Paladin1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -9696,8 +9696,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_Grapple', 'Paladin1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_Grapple', 'Paladin1-2-7','Paladin1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -9722,8 +9722,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_FirstAid', 'Paladin1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_FirstAid', 'Paladin1-2-8','Paladin1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -9748,8 +9748,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_IgnorePain', 'Paladin1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_IgnorePain', 'Paladin1-2-9','Paladin1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -9774,8 +9774,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_RainOfFire', 'Paladin1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_RainOfFire', 'Paladin1-3-1','Paladin1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -9800,8 +9800,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_RainOfIce', 'Paladin1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_RainOfIce', 'Paladin1-3-2','Paladin1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -9826,8 +9826,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_RainOfAnnihilation', 'Paladin1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_RainOfAnnihilation', 'Paladin1-3-3','Paladin1-3-3');</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -9852,8 +9852,8 @@
         <v>4</v>
       </c>
       <c r="H34" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_EmptyMind', 'Paladin1-3-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_EmptyMind', 'Paladin1-3-4','Paladin1-3-4');</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -9878,8 +9878,8 @@
         <v>5</v>
       </c>
       <c r="H35" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_Purge', 'Paladin1-3-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_Purge', 'Paladin1-3-5','Paladin1-3-5');</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -9904,8 +9904,8 @@
         <v>6</v>
       </c>
       <c r="H36" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('1', 'AtlasOF_FaithHealing', 'Paladin1-3-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"','",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('1', 'AtlasOF_FaithHealing', 'Paladin1-3-6','Paladin1-3-6');</v>
       </c>
     </row>
   </sheetData>
@@ -9933,9 +9933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9947,14 +9947,14 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="212" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>2</v>
@@ -10010,8 +10010,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_AugStr', 'Armsman1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_AugStr', 'Armsman1-0-1','Armsman1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -10036,8 +10036,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_MasteryOfArms', 'Armsman1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_MasteryOfArms', 'Armsman1-0-2','Armsman1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -10062,8 +10062,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_AugDex', 'Armsman1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_AugDex', 'Armsman1-0-3','Armsman1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -10088,8 +10088,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_MasteryOfPain', 'Armsman1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_MasteryOfPain', 'Armsman1-0-4','Armsman1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -10114,8 +10114,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_MasteryOfBlocking', 'Armsman1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_MasteryOfBlocking', 'Armsman1-0-5','Armsman1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -10140,8 +10140,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_MasteryOfParrying', 'Armsman1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_MasteryOfParrying', 'Armsman1-0-6','Armsman1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -10166,8 +10166,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_HailOfBlows', 'Armsman1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_HailOfBlows', 'Armsman1-0-7','Armsman1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -10192,8 +10192,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_AugCon', 'Armsman1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_AugCon', 'Armsman1-0-8','Armsman1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -10218,8 +10218,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_AvoidPain', 'Armsman1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_AvoidPain', 'Armsman1-0-9','Armsman1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -10244,8 +10244,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_SecondWind', 'Armsman1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_SecondWind', 'Armsman1-1-1','Armsman1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -10270,8 +10270,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_BattleYell', 'Armsman1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_BattleYell', 'Armsman1-1-2','Armsman1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -10296,8 +10296,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_AugQui', 'Armsman1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_AugQui', 'Armsman1-1-3','Armsman1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -10322,8 +10322,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_LongWind', 'Armsman1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_LongWind', 'Armsman1-1-4','Armsman1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -10348,8 +10348,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_Tireless', 'Armsman1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_Tireless', 'Armsman1-1-5','Armsman1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -10374,8 +10374,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_Regeneration', 'Armsman1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_Regeneration', 'Armsman1-1-6','Armsman1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -10400,8 +10400,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_Toughness', 'Armsman1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_Toughness', 'Armsman1-1-7','Armsman1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -10426,8 +10426,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_MasteryOfWater', 'Armsman1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_MasteryOfWater', 'Armsman1-1-8','Armsman1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -10452,8 +10452,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_AvoidanceOfMagic', 'Armsman1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_AvoidanceOfMagic', 'Armsman1-1-9','Armsman1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -10478,8 +10478,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_Lifter', 'Armsman1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_Lifter', 'Armsman1-2-1','Armsman1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -10504,8 +10504,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_VeilRecovery', 'Armsman1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_VeilRecovery', 'Armsman1-2-2','Armsman1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -10530,8 +10530,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_Determination', 'Armsman1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_Determination', 'Armsman1-2-3','Armsman1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -10556,8 +10556,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_Trip', 'Armsman1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_Trip', 'Armsman1-2-4','Armsman1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -10582,8 +10582,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_Grapple', 'Armsman1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_Grapple', 'Armsman1-2-5','Armsman1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -10608,8 +10608,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_FirstAid', 'Armsman1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_FirstAid', 'Armsman1-2-6','Armsman1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -10634,8 +10634,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_IgnorePain', 'Armsman1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_IgnorePain', 'Armsman1-2-7','Armsman1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -10660,8 +10660,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_RainOfFire', 'Armsman1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_RainOfFire', 'Armsman1-2-8','Armsman1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -10686,8 +10686,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_RainOfIce', 'Armsman1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_RainOfIce', 'Armsman1-2-9','Armsman1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -10712,8 +10712,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_RainOfAnnihilation', 'Armsman1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_RainOfAnnihilation', 'Armsman1-3-1','Armsman1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -10738,8 +10738,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_EmptyMind', 'Armsman1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_EmptyMind', 'Armsman1-3-2','Armsman1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -10764,8 +10764,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_Purge', 'Armsman1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_Purge', 'Armsman1-3-3','Armsman1-3-3');</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -10790,8 +10790,8 @@
         <v>4</v>
       </c>
       <c r="H34" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_SoldiersBarricade', 'Armsman1-3-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_SoldiersBarricade', 'Armsman1-3-4','Armsman1-3-4');</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -10816,8 +10816,8 @@
         <v>5</v>
       </c>
       <c r="H35" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('2', 'AtlasOF_PreventFlight', 'Armsman1-3-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"','",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('2', 'AtlasOF_PreventFlight', 'Armsman1-3-5','Armsman1-3-5');</v>
       </c>
     </row>
   </sheetData>
@@ -10845,9 +10845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H35"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10859,14 +10859,14 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="217.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>11</v>
@@ -10922,8 +10922,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_AugStr', 'Mercenary1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_AugStr', 'Mercenary1-0-1','Mercenary1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -10948,8 +10948,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_MasteryOfArms', 'Mercenary1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_MasteryOfArms', 'Mercenary1-0-2','Mercenary1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -10974,8 +10974,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_AugDex', 'Mercenary1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_AugDex', 'Mercenary1-0-3','Mercenary1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -11000,8 +11000,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_MasteryOfPain', 'Mercenary1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_MasteryOfPain', 'Mercenary1-0-4','Mercenary1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -11026,8 +11026,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_MasteryOfParrying', 'Mercenary1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_MasteryOfParrying', 'Mercenary1-0-5','Mercenary1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -11052,8 +11052,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_HailOfBlows', 'Mercenary1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_HailOfBlows', 'Mercenary1-0-6','Mercenary1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -11078,8 +11078,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_DualistsReflexes', 'Mercenary1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_DualistsReflexes', 'Mercenary1-0-7','Mercenary1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -11104,8 +11104,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_WhirlingDervish', 'Mercenary1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_WhirlingDervish', 'Mercenary1-0-8','Mercenary1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -11130,8 +11130,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_AugCon', 'Mercenary1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_AugCon', 'Mercenary1-0-9','Mercenary1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -11156,8 +11156,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_SecondWind', 'Mercenary1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_SecondWind', 'Mercenary1-1-1','Mercenary1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -11182,8 +11182,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_AugQui', 'Mercenary1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_AugQui', 'Mercenary1-1-2','Mercenary1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -11208,8 +11208,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_Dodger', 'Mercenary1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_Dodger', 'Mercenary1-1-3','Mercenary1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -11234,8 +11234,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_LongWind', 'Mercenary1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_LongWind', 'Mercenary1-1-4','Mercenary1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -11260,8 +11260,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_Tireless', 'Mercenary1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_Tireless', 'Mercenary1-1-5','Mercenary1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -11286,8 +11286,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_Regeneration', 'Mercenary1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_Regeneration', 'Mercenary1-1-6','Mercenary1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -11312,8 +11312,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_Toughness', 'Mercenary1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_Toughness', 'Mercenary1-1-7','Mercenary1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -11338,8 +11338,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_MasteryOfWater', 'Mercenary1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_MasteryOfWater', 'Mercenary1-1-8','Mercenary1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -11364,8 +11364,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_AvoidanceOfMagic', 'Mercenary1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_AvoidanceOfMagic', 'Mercenary1-1-9','Mercenary1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -11390,8 +11390,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_Lifter', 'Mercenary1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_Lifter', 'Mercenary1-2-1','Mercenary1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -11416,8 +11416,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_VeilRecovery', 'Mercenary1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_VeilRecovery', 'Mercenary1-2-2','Mercenary1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -11442,8 +11442,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_Determination', 'Mercenary1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_Determination', 'Mercenary1-2-3','Mercenary1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -11468,8 +11468,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_Trip', 'Mercenary1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_Trip', 'Mercenary1-2-4','Mercenary1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -11494,8 +11494,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_Grapple', 'Mercenary1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_Grapple', 'Mercenary1-2-5','Mercenary1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -11520,8 +11520,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_FirstAid', 'Mercenary1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_FirstAid', 'Mercenary1-2-6','Mercenary1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -11546,8 +11546,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_IgnorePain', 'Mercenary1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_IgnorePain', 'Mercenary1-2-7','Mercenary1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -11572,8 +11572,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_RainOfFire', 'Mercenary1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_RainOfFire', 'Mercenary1-2-8','Mercenary1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -11598,8 +11598,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_RainOfIce', 'Mercenary1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_RainOfIce', 'Mercenary1-2-9','Mercenary1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -11624,8 +11624,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_RainOfAnnihilation', 'Mercenary1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_RainOfAnnihilation', 'Mercenary1-3-1','Mercenary1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -11650,8 +11650,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_EmptyMind', 'Mercenary1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_EmptyMind', 'Mercenary1-3-2','Mercenary1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -11676,13 +11676,13 @@
         <v>3</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_Purge', 'Mercenary1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_Purge', 'Mercenary1-3-3','Mercenary1-3-3');</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -11702,8 +11702,8 @@
         <v>4</v>
       </c>
       <c r="H34" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_VoidStyle', 'Mercenary1-3-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_StyleVoid', 'Mercenary1-3-4','Mercenary1-3-4');</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -11728,8 +11728,8 @@
         <v>5</v>
       </c>
       <c r="H35" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('11', 'AtlasOF_PreventFlight', 'Mercenary1-3-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"','",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('11', 'AtlasOF_PreventFlight', 'Mercenary1-3-5','Mercenary1-3-5');</v>
       </c>
     </row>
   </sheetData>
@@ -11757,9 +11757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H33"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11771,20 +11771,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="210.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -11834,8 +11834,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_AugStr', 'Reaver1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_AugStr', 'Reaver1-0-1','Reaver1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -11860,8 +11860,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_MasteryOfArms', 'Reaver1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_MasteryOfArms', 'Reaver1-0-2','Reaver1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -11886,8 +11886,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_AugDex', 'Reaver1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_AugDex', 'Reaver1-0-3','Reaver1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -11912,8 +11912,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_MasteryOfPain', 'Reaver1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_MasteryOfPain', 'Reaver1-0-4','Reaver1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -11938,8 +11938,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_MasteryOfBlocking', 'Reaver1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_MasteryOfBlocking', 'Reaver1-0-5','Reaver1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -11964,8 +11964,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_MasteryOfParrying', 'Reaver1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_MasteryOfParrying', 'Reaver1-0-6','Reaver1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -11990,8 +11990,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_HailOfBlows', 'Reaver1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_HailOfBlows', 'Reaver1-0-7','Reaver1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -12016,8 +12016,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_AugCon', 'Reaver1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_AugCon', 'Reaver1-0-8','Reaver1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -12042,8 +12042,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_SecondWind', 'Reaver1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_SecondWind', 'Reaver1-0-9','Reaver1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -12068,8 +12068,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_ArmorOfFaith', 'Reaver1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_ArmorOfFaith', 'Reaver1-1-1','Reaver1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -12094,8 +12094,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_AugQui', 'Reaver1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_AugQui', 'Reaver1-1-2','Reaver1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -12120,8 +12120,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_AugAcuity', 'Reaver1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_AugAcuity', 'Reaver1-1-3','Reaver1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -12146,8 +12146,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_Serenity', 'Reaver1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_Serenity', 'Reaver1-1-4','Reaver1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -12172,8 +12172,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_WildArcana', 'Reaver1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_WildArcana', 'Reaver1-1-5','Reaver1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -12198,8 +12198,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_LongWind', 'Reaver1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_LongWind', 'Reaver1-1-6','Reaver1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -12224,8 +12224,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_Tireless', 'Reaver1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_Tireless', 'Reaver1-1-7','Reaver1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -12250,8 +12250,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_Regeneration', 'Reaver1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_Regeneration', 'Reaver1-1-8','Reaver1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -12276,8 +12276,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_Toughness', 'Reaver1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_Toughness', 'Reaver1-1-9','Reaver1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -12302,8 +12302,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_MasteryOfWater', 'Reaver1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_MasteryOfWater', 'Reaver1-2-1','Reaver1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -12328,8 +12328,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_AvoidanceOfMagic', 'Reaver1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_AvoidanceOfMagic', 'Reaver1-2-2','Reaver1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -12354,8 +12354,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_Lifter', 'Reaver1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_Lifter', 'Reaver1-2-3','Reaver1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -12380,8 +12380,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_VeilRecovery', 'Reaver1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_VeilRecovery', 'Reaver1-2-4','Reaver1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -12406,8 +12406,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_FirstAid', 'Reaver1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_FirstAid', 'Reaver1-2-5','Reaver1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -12432,8 +12432,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_IgnorePain', 'Reaver1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_IgnorePain', 'Reaver1-2-6','Reaver1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -12458,8 +12458,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_RainOfFire', 'Reaver1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_RainOfFire', 'Reaver1-2-7','Reaver1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -12484,8 +12484,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_RainOfIce', 'Reaver1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_RainOfIce', 'Reaver1-2-8','Reaver1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -12510,8 +12510,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_RainOfAnnihilation', 'Reaver1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_RainOfAnnihilation', 'Reaver1-2-9','Reaver1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -12536,8 +12536,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_EmptyMind', 'Reaver1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_EmptyMind', 'Reaver1-3-1','Reaver1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -12562,8 +12562,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_Purge', 'Reaver1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_Purge', 'Reaver1-3-2','Reaver1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -12588,8 +12588,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('19', 'AtlasOF_UnquenchableThirst', 'Reaver1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"','",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('19', 'AtlasOF_UnquenchableThirst', 'Reaver1-3-3','Reaver1-3-3');</v>
       </c>
     </row>
   </sheetData>
@@ -12617,9 +12617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H34"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12631,20 +12631,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="209.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -12694,8 +12694,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_AugStr', 'Cleric1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_AugStr', 'Cleric1-0-1','Cleric1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -12720,8 +12720,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_AugDex', 'Cleric1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_AugDex', 'Cleric1-0-2','Cleric1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -12746,8 +12746,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_AugCon', 'Cleric1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_AugCon', 'Cleric1-0-3','Cleric1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -12772,8 +12772,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_AvoidPain', 'Cleric1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_AvoidPain', 'Cleric1-0-4','Cleric1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -12798,8 +12798,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_SecondWind', 'Cleric1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_SecondWind', 'Cleric1-0-5','Cleric1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -12824,8 +12824,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_ArmorOfFaith', 'Cleric1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_ArmorOfFaith', 'Cleric1-0-6','Cleric1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -12850,8 +12850,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_AugQui', 'Cleric1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_AugQui', 'Cleric1-0-7','Cleric1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -12876,8 +12876,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_AugAcuity', 'Cleric1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_AugAcuity', 'Cleric1-0-8','Cleric1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -12902,8 +12902,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_Serenity', 'Cleric1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_Serenity', 'Cleric1-0-9','Cleric1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -12928,8 +12928,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_EtherealBond', 'Cleric1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_EtherealBond', 'Cleric1-1-1','Cleric1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -12954,8 +12954,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_WildHealing', 'Cleric1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_WildHealing', 'Cleric1-1-2','Cleric1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -12980,8 +12980,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_MasteryOfTheArt', 'Cleric1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_MasteryOfTheArt', 'Cleric1-1-3','Cleric1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -13006,8 +13006,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_MasteryOfHealing', 'Cleric1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_MasteryOfHealing', 'Cleric1-1-4','Cleric1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -13032,8 +13032,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_MasteryOfMagery', 'Cleric1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_MasteryOfMagery', 'Cleric1-1-5','Cleric1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -13058,8 +13058,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_MasteryOfTheArcane', 'Cleric1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_MasteryOfTheArcane', 'Cleric1-1-6','Cleric1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -13084,8 +13084,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_MasteryOfConcentration', 'Cleric1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_MasteryOfConcentration', 'Cleric1-1-7','Cleric1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -13110,8 +13110,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_MajesticWill', 'Cleric1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_MajesticWill', 'Cleric1-1-8','Cleric1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -13136,8 +13136,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_LongWind', 'Cleric1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_LongWind', 'Cleric1-1-9','Cleric1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -13162,8 +13162,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_Tireless', 'Cleric1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_Tireless', 'Cleric1-2-1','Cleric1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -13188,8 +13188,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_Regeneration', 'Cleric1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_Regeneration', 'Cleric1-2-2','Cleric1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -13214,8 +13214,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_Toughness', 'Cleric1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_Toughness', 'Cleric1-2-3','Cleric1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -13240,8 +13240,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_MasteryOfWater', 'Cleric1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_MasteryOfWater', 'Cleric1-2-4','Cleric1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -13266,8 +13266,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_AvoidanceOfMagic', 'Cleric1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_AvoidanceOfMagic', 'Cleric1-2-5','Cleric1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -13292,8 +13292,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_Lifter', 'Cleric1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_Lifter', 'Cleric1-2-6','Cleric1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -13318,8 +13318,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_VeilRecovery', 'Cleric1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_VeilRecovery', 'Cleric1-2-7','Cleric1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -13344,8 +13344,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_EmptyMind', 'Cleric1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_EmptyMind', 'Cleric1-2-8','Cleric1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -13370,8 +13370,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_MCL', 'Cleric1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_MCL', 'Cleric1-2-9','Cleric1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -13396,8 +13396,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_RagingPower', 'Cleric1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_RagingPower', 'Cleric1-3-1','Cleric1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -13422,8 +13422,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_Purge', 'Cleric1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_Purge', 'Cleric1-3-2','Cleric1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -13448,8 +13448,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_BunkerOfFaith', 'Cleric1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_BunkerOfFaith', 'Cleric1-3-3','Cleric1-3-3');</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -13474,8 +13474,8 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('6', 'AtlasOF_BatteryOfLife', 'Cleric1-3-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"','",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('6', 'AtlasOF_BatteryOfLife', 'Cleric1-3-4','Cleric1-3-4');</v>
       </c>
     </row>
   </sheetData>
@@ -13503,9 +13503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H35"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13517,20 +13517,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="208.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -13580,8 +13580,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_AugStr', 'Friar1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_AugStr', 'Friar1-0-1','Friar1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -13606,8 +13606,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_MasteryOfArms', 'Friar1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_MasteryOfArms', 'Friar1-0-2','Friar1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -13632,8 +13632,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_AugDex', 'Friar1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_AugDex', 'Friar1-0-3','Friar1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -13658,8 +13658,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_MasteryOfPain', 'Friar1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_MasteryOfPain', 'Friar1-0-4','Friar1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -13684,8 +13684,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_MasteryOfParrying', 'Friar1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_MasteryOfParrying', 'Friar1-0-5','Friar1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -13710,8 +13710,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_HailOfBlows', 'Friar1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_HailOfBlows', 'Friar1-0-6','Friar1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -13736,8 +13736,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_AugCon', 'Friar1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_AugCon', 'Friar1-0-7','Friar1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -13762,8 +13762,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_SecondWind', 'Friar1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_SecondWind', 'Friar1-0-8','Friar1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -13788,8 +13788,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_ArmorOfFaith', 'Friar1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_ArmorOfFaith', 'Friar1-0-9','Friar1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -13814,8 +13814,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_AugQui', 'Friar1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_AugQui', 'Friar1-1-1','Friar1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -13840,8 +13840,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_Dodger', 'Friar1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_Dodger', 'Friar1-1-2','Friar1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -13866,8 +13866,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_AugAcuity', 'Friar1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_AugAcuity', 'Friar1-1-3','Friar1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -13892,8 +13892,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_Serenity', 'Friar1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_Serenity', 'Friar1-1-4','Friar1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -13918,8 +13918,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_MasteryOfHealing', 'Friar1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_MasteryOfHealing', 'Friar1-1-5','Friar1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -13944,8 +13944,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_MasteryOfTheArcane', 'Friar1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_MasteryOfTheArcane', 'Friar1-1-6','Friar1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -13970,8 +13970,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_MasteryOfConcentration', 'Friar1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_MasteryOfConcentration', 'Friar1-1-7','Friar1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -13996,8 +13996,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_LongWind', 'Friar1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_LongWind', 'Friar1-1-8','Friar1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -14022,8 +14022,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_Tireless', 'Friar1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_Tireless', 'Friar1-1-9','Friar1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -14048,8 +14048,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_Regeneration', 'Friar1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_Regeneration', 'Friar1-2-1','Friar1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -14074,8 +14074,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_Toughness', 'Friar1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_Toughness', 'Friar1-2-2','Friar1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -14100,8 +14100,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_MasteryOfWater', 'Friar1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_MasteryOfWater', 'Friar1-2-3','Friar1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -14126,8 +14126,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_AvoidanceOfMagic', 'Friar1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_AvoidanceOfMagic', 'Friar1-2-4','Friar1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -14152,8 +14152,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_Lifter', 'Friar1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_Lifter', 'Friar1-2-5','Friar1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -14178,8 +14178,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_VeilRecovery', 'Friar1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_VeilRecovery', 'Friar1-2-6','Friar1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -14204,8 +14204,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_Trip', 'Friar1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_Trip', 'Friar1-2-7','Friar1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -14230,8 +14230,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_FirstAid', 'Friar1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_FirstAid', 'Friar1-2-8','Friar1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -14256,8 +14256,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_IgnorePain', 'Friar1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_IgnorePain', 'Friar1-2-9','Friar1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -14282,8 +14282,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_EmptyMind', 'Friar1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_EmptyMind', 'Friar1-3-1','Friar1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -14308,8 +14308,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_MCL', 'Friar1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_MCL', 'Friar1-3-2','Friar1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -14334,8 +14334,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_RagingPower', 'Friar1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_RagingPower', 'Friar1-3-3','Friar1-3-3');</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -14360,8 +14360,8 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_Purge', 'Friar1-3-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_Purge', 'Friar1-3-4','Friar1-3-4');</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -14386,8 +14386,8 @@
         <v>5</v>
       </c>
       <c r="H35" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('10', 'AtlasOF_ReflexAttack', 'Friar1-3-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"','",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('10', 'AtlasOF_ReflexAttack', 'Friar1-3-5','Friar1-3-5');</v>
       </c>
     </row>
   </sheetData>
@@ -14415,9 +14415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H31"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14429,20 +14429,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="220.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -14492,8 +14492,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_AugStr', 'Infiltrator1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_AugStr', 'Infiltrator1-0-1','Infiltrator1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -14518,8 +14518,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_MasteryOfArms', 'Infiltrator1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_MasteryOfArms', 'Infiltrator1-0-2','Infiltrator1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -14544,8 +14544,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_AugDex', 'Infiltrator1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_AugDex', 'Infiltrator1-0-3','Infiltrator1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -14570,8 +14570,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_MasteryOfPain', 'Infiltrator1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_MasteryOfPain', 'Infiltrator1-0-4','Infiltrator1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -14596,8 +14596,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_DualistsReflexes', 'Infiltrator1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_DualistsReflexes', 'Infiltrator1-0-5','Infiltrator1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -14622,8 +14622,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_WhirlingDervish', 'Infiltrator1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_WhirlingDervish', 'Infiltrator1-0-6','Infiltrator1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -14648,8 +14648,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_Bladedance', 'Infiltrator1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_Bladedance', 'Infiltrator1-0-7','Infiltrator1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -14674,8 +14674,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_AugCon', 'Infiltrator1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_AugCon', 'Infiltrator1-0-8','Infiltrator1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -14700,8 +14700,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_SecondWind', 'Infiltrator1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_SecondWind', 'Infiltrator1-0-9','Infiltrator1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -14726,8 +14726,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_AugQui', 'Infiltrator1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_AugQui', 'Infiltrator1-1-1','Infiltrator1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -14752,8 +14752,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_Dodger', 'Infiltrator1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_Dodger', 'Infiltrator1-1-2','Infiltrator1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -14778,8 +14778,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_MasteryOfStealth', 'Infiltrator1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_MasteryOfStealth', 'Infiltrator1-1-3','Infiltrator1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -14804,8 +14804,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_LongWind', 'Infiltrator1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_LongWind', 'Infiltrator1-1-4','Infiltrator1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -14830,8 +14830,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_Tireless', 'Infiltrator1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_Tireless', 'Infiltrator1-1-5','Infiltrator1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -14856,8 +14856,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_Regeneration', 'Infiltrator1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_Regeneration', 'Infiltrator1-1-6','Infiltrator1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -14882,8 +14882,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_Toughness', 'Infiltrator1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_Toughness', 'Infiltrator1-1-7','Infiltrator1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -14908,8 +14908,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_MasteryOfWater', 'Infiltrator1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_MasteryOfWater', 'Infiltrator1-1-8','Infiltrator1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -14934,8 +14934,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_AvoidanceOfMagic', 'Infiltrator1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_AvoidanceOfMagic', 'Infiltrator1-1-9','Infiltrator1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -14960,8 +14960,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_Lifter', 'Infiltrator1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_Lifter', 'Infiltrator1-2-1','Infiltrator1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -14986,8 +14986,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_VeilRecovery', 'Infiltrator1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_VeilRecovery', 'Infiltrator1-2-2','Infiltrator1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -15012,8 +15012,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_SeeHidden', 'Infiltrator1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_SeeHidden', 'Infiltrator1-2-3','Infiltrator1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -15038,8 +15038,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_FirstAid', 'Infiltrator1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_FirstAid', 'Infiltrator1-2-4','Infiltrator1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -15064,8 +15064,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_RainOfFire', 'Infiltrator1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_RainOfFire', 'Infiltrator1-2-5','Infiltrator1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -15090,8 +15090,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_RainOfIce', 'Infiltrator1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_RainOfIce', 'Infiltrator1-2-6','Infiltrator1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -15116,8 +15116,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_RainOfAnnihilation', 'Infiltrator1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_RainOfAnnihilation', 'Infiltrator1-2-7','Infiltrator1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -15142,8 +15142,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_EmptyMind', 'Infiltrator1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_EmptyMind', 'Infiltrator1-2-8','Infiltrator1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -15168,8 +15168,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_Purge', 'Infiltrator1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_Purge', 'Infiltrator1-2-9','Infiltrator1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -15194,8 +15194,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('9', 'AtlasOF_Vanish', 'Infiltrator1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"','",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('9', 'AtlasOF_Vanish', 'Infiltrator1-3-1','Infiltrator1-3-1');</v>
       </c>
     </row>
   </sheetData>
@@ -15223,9 +15223,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H36"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15237,20 +15237,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="214" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -15300,8 +15300,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_AugStr', 'Minstrel1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_AugStr', 'Minstrel1-0-1','Minstrel1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -15326,8 +15326,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_MasteryOfArms', 'Minstrel1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_MasteryOfArms', 'Minstrel1-0-2','Minstrel1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -15352,8 +15352,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_AugDex', 'Minstrel1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_AugDex', 'Minstrel1-0-3','Minstrel1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -15378,8 +15378,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_MasteryOfPain', 'Minstrel1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_MasteryOfPain', 'Minstrel1-0-4','Minstrel1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -15404,8 +15404,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_MasteryOfBlocking', 'Minstrel1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_MasteryOfBlocking', 'Minstrel1-0-5','Minstrel1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -15430,8 +15430,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_HailOfBlows', 'Minstrel1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_HailOfBlows', 'Minstrel1-0-6','Minstrel1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -15456,8 +15456,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_AugCon', 'Minstrel1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_AugCon', 'Minstrel1-0-7','Minstrel1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -15482,8 +15482,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_AvoidPain', 'Minstrel1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_AvoidPain', 'Minstrel1-0-8','Minstrel1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -15508,8 +15508,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_SecondWind', 'Minstrel1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_SecondWind', 'Minstrel1-0-9','Minstrel1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -15534,8 +15534,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_AugQui', 'Minstrel1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_AugQui', 'Minstrel1-1-1','Minstrel1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -15560,8 +15560,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_Dodger', 'Minstrel1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_Dodger', 'Minstrel1-1-2','Minstrel1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -15586,8 +15586,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_AugAcuity', 'Minstrel1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_AugAcuity', 'Minstrel1-1-3','Minstrel1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -15612,8 +15612,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_Serenity', 'Minstrel1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_Serenity', 'Minstrel1-1-4','Minstrel1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -15638,8 +15638,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_EtherealBond', 'Minstrel1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_EtherealBond', 'Minstrel1-1-5','Minstrel1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -15664,8 +15664,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_MasteryOfTheArcane', 'Minstrel1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_MasteryOfTheArcane', 'Minstrel1-1-6','Minstrel1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -15690,8 +15690,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_LongWind', 'Minstrel1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_LongWind', 'Minstrel1-1-7','Minstrel1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -15716,8 +15716,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_Tireless', 'Minstrel1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_Tireless', 'Minstrel1-1-8','Minstrel1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -15742,8 +15742,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_Regeneration', 'Minstrel1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_Regeneration', 'Minstrel1-1-9','Minstrel1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -15768,8 +15768,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_Toughness', 'Minstrel1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_Toughness', 'Minstrel1-2-1','Minstrel1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -15794,8 +15794,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_MasteryOfWater', 'Minstrel1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_MasteryOfWater', 'Minstrel1-2-2','Minstrel1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -15820,8 +15820,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_AvoidanceOfMagic', 'Minstrel1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_AvoidanceOfMagic', 'Minstrel1-2-3','Minstrel1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -15846,8 +15846,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_Lifter', 'Minstrel1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_Lifter', 'Minstrel1-2-4','Minstrel1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -15872,8 +15872,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_VeilRecovery', 'Minstrel1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_VeilRecovery', 'Minstrel1-2-5','Minstrel1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -15898,8 +15898,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_FirstAid', 'Minstrel1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_FirstAid', 'Minstrel1-2-6','Minstrel1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -15924,8 +15924,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_IgnorePain', 'Minstrel1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_IgnorePain', 'Minstrel1-2-7','Minstrel1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -15950,8 +15950,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_RainOfFire', 'Minstrel1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_RainOfFire', 'Minstrel1-2-8','Minstrel1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -15976,8 +15976,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_RainOfIce', 'Minstrel1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_RainOfIce', 'Minstrel1-2-9','Minstrel1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -16002,8 +16002,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_RainOfAnnihilation', 'Minstrel1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_RainOfAnnihilation', 'Minstrel1-3-1','Minstrel1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -16028,8 +16028,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_EmptyMind', 'Minstrel1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_EmptyMind', 'Minstrel1-3-2','Minstrel1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -16054,8 +16054,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_MCL', 'Minstrel1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_MCL', 'Minstrel1-3-3','Minstrel1-3-3');</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -16080,8 +16080,8 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_RagingPower', 'Minstrel1-3-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_RagingPower', 'Minstrel1-3-4','Minstrel1-3-4');</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -16106,8 +16106,8 @@
         <v>5</v>
       </c>
       <c r="H35" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_Purge', 'Minstrel1-3-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_Purge', 'Minstrel1-3-5','Minstrel1-3-5');</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -16132,8 +16132,8 @@
         <v>6</v>
       </c>
       <c r="H36" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('4', 'AtlasOF_SpeedOfSound', 'Minstrel1-3-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"','",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('4', 'AtlasOF_SpeedOfSound', 'Minstrel1-3-6','Minstrel1-3-6');</v>
       </c>
     </row>
   </sheetData>
